--- a/individual_results/avey/229.xlsx
+++ b/individual_results/avey/229.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.6666666666666666</v>
@@ -598,9 +598,7 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.8</v>
       </c>
@@ -636,9 +634,7 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.7142857142857142</v>
       </c>
@@ -675,7 +671,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3726262671130988</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.7895959410076381</v>
@@ -767,7 +763,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -813,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -858,9 +854,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>2</v>
       </c>
